--- a/www/IndicatorsPerCountry/Morocco_GDPperCapita_TerritorialRef_1979_2012_CCode_504.xlsx
+++ b/www/IndicatorsPerCountry/Morocco_GDPperCapita_TerritorialRef_1979_2012_CCode_504.xlsx
@@ -258,13 +258,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Morocco_GDPperCapita_TerritorialRef_1979_2012_CCode_504.xlsx
+++ b/www/IndicatorsPerCountry/Morocco_GDPperCapita_TerritorialRef_1979_2012_CCode_504.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="90">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,199 +36,217 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>430</t>
+    <t>685</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>563</t>
-  </si>
-  <si>
-    <t>710</t>
-  </si>
-  <si>
-    <t>1455</t>
-  </si>
-  <si>
-    <t>1458</t>
-  </si>
-  <si>
-    <t>1460</t>
-  </si>
-  <si>
-    <t>1468</t>
-  </si>
-  <si>
-    <t>1476</t>
-  </si>
-  <si>
-    <t>1483</t>
-  </si>
-  <si>
-    <t>1451</t>
-  </si>
-  <si>
-    <t>1420</t>
-  </si>
-  <si>
-    <t>1389</t>
-  </si>
-  <si>
-    <t>1358</t>
-  </si>
-  <si>
-    <t>1329</t>
-  </si>
-  <si>
-    <t>1341</t>
-  </si>
-  <si>
-    <t>1354</t>
-  </si>
-  <si>
-    <t>1367</t>
-  </si>
-  <si>
-    <t>1381</t>
-  </si>
-  <si>
-    <t>1394</t>
-  </si>
-  <si>
-    <t>1436</t>
-  </si>
-  <si>
-    <t>1480</t>
-  </si>
-  <si>
-    <t>1524</t>
-  </si>
-  <si>
-    <t>1570</t>
-  </si>
-  <si>
-    <t>1616</t>
-  </si>
-  <si>
-    <t>1665</t>
-  </si>
-  <si>
-    <t>1669</t>
-  </si>
-  <si>
-    <t>1694</t>
-  </si>
-  <si>
-    <t>1751</t>
-  </si>
-  <si>
-    <t>1831</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>2050</t>
-  </si>
-  <si>
-    <t>2069</t>
-  </si>
-  <si>
-    <t>2122</t>
-  </si>
-  <si>
-    <t>2272</t>
-  </si>
-  <si>
-    <t>2169</t>
-  </si>
-  <si>
-    <t>2337</t>
-  </si>
-  <si>
-    <t>2262</t>
-  </si>
-  <si>
-    <t>2294</t>
-  </si>
-  <si>
-    <t>2374</t>
-  </si>
-  <si>
-    <t>2495</t>
-  </si>
-  <si>
-    <t>2378</t>
-  </si>
-  <si>
-    <t>2558</t>
-  </si>
-  <si>
-    <t>2555</t>
-  </si>
-  <si>
-    <t>2590.76176449</t>
-  </si>
-  <si>
-    <t>2720.30518818</t>
-  </si>
-  <si>
-    <t>2565.82530289</t>
-  </si>
-  <si>
-    <t>2496.46373622</t>
-  </si>
-  <si>
-    <t>2708.93274359</t>
-  </si>
-  <si>
-    <t>2489.6230546</t>
-  </si>
-  <si>
-    <t>2750.02839984</t>
-  </si>
-  <si>
-    <t>2648.38640506</t>
-  </si>
-  <si>
-    <t>2810.75506759</t>
-  </si>
-  <si>
-    <t>2786.83457724</t>
-  </si>
-  <si>
-    <t>2793.85003215</t>
-  </si>
-  <si>
-    <t>2966.38569566</t>
-  </si>
-  <si>
-    <t>3026.34320148</t>
-  </si>
-  <si>
-    <t>3178.04674682</t>
-  </si>
-  <si>
-    <t>3290.7037716</t>
-  </si>
-  <si>
-    <t>3349.11385077</t>
-  </si>
-  <si>
-    <t>3567.62080855</t>
-  </si>
-  <si>
-    <t>3622.63282083</t>
-  </si>
-  <si>
-    <t>3782.25622338</t>
-  </si>
-  <si>
-    <t>3925.68793056</t>
-  </si>
-  <si>
-    <t>4026.88781165</t>
+    <t>897</t>
+  </si>
+  <si>
+    <t>1132</t>
+  </si>
+  <si>
+    <t>2319</t>
+  </si>
+  <si>
+    <t>2324</t>
+  </si>
+  <si>
+    <t>2327</t>
+  </si>
+  <si>
+    <t>2340</t>
+  </si>
+  <si>
+    <t>2353</t>
+  </si>
+  <si>
+    <t>2364</t>
+  </si>
+  <si>
+    <t>2313</t>
+  </si>
+  <si>
+    <t>2263</t>
+  </si>
+  <si>
+    <t>2214</t>
+  </si>
+  <si>
+    <t>2165</t>
+  </si>
+  <si>
+    <t>2118</t>
+  </si>
+  <si>
+    <t>2138</t>
+  </si>
+  <si>
+    <t>2158</t>
+  </si>
+  <si>
+    <t>2179</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2222</t>
+  </si>
+  <si>
+    <t>2289</t>
+  </si>
+  <si>
+    <t>2359</t>
+  </si>
+  <si>
+    <t>2429</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2576</t>
+  </si>
+  <si>
+    <t>2654</t>
+  </si>
+  <si>
+    <t>2660</t>
+  </si>
+  <si>
+    <t>2700</t>
+  </si>
+  <si>
+    <t>2791</t>
+  </si>
+  <si>
+    <t>2919</t>
+  </si>
+  <si>
+    <t>3175</t>
+  </si>
+  <si>
+    <t>3268</t>
+  </si>
+  <si>
+    <t>3298</t>
+  </si>
+  <si>
+    <t>3382</t>
+  </si>
+  <si>
+    <t>3622</t>
+  </si>
+  <si>
+    <t>3457</t>
+  </si>
+  <si>
+    <t>3725</t>
+  </si>
+  <si>
+    <t>3606</t>
+  </si>
+  <si>
+    <t>3657</t>
+  </si>
+  <si>
+    <t>3784</t>
+  </si>
+  <si>
+    <t>3977</t>
+  </si>
+  <si>
+    <t>3790</t>
+  </si>
+  <si>
+    <t>4077</t>
+  </si>
+  <si>
+    <t>4073</t>
+  </si>
+  <si>
+    <t>4130</t>
+  </si>
+  <si>
+    <t>4353.7296889409</t>
+  </si>
+  <si>
+    <t>4194.44690978948</t>
+  </si>
+  <si>
+    <t>4097.28062769957</t>
+  </si>
+  <si>
+    <t>4461.06259109658</t>
+  </si>
+  <si>
+    <t>4156.92505145095</t>
+  </si>
+  <si>
+    <t>4603.65195843106</t>
+  </si>
+  <si>
+    <t>4469.18982356671</t>
+  </si>
+  <si>
+    <t>4729.18293904048</t>
+  </si>
+  <si>
+    <t>4720.77134761778</t>
+  </si>
+  <si>
+    <t>4753.63825365122</t>
+  </si>
+  <si>
+    <t>5042.07310981944</t>
+  </si>
+  <si>
+    <t>5140.8725323116</t>
+  </si>
+  <si>
+    <t>5386.85038008371</t>
+  </si>
+  <si>
+    <t>5584.15384967664</t>
+  </si>
+  <si>
+    <t>5708.03114095666</t>
+  </si>
+  <si>
+    <t>6076.95253367062</t>
+  </si>
+  <si>
+    <t>6228.43166689224</t>
+  </si>
+  <si>
+    <t>6530.97807194875</t>
+  </si>
+  <si>
+    <t>6741.46026999185</t>
+  </si>
+  <si>
+    <t>6931.55829013224</t>
+  </si>
+  <si>
+    <t>7226</t>
+  </si>
+  <si>
+    <t>7365</t>
+  </si>
+  <si>
+    <t>7619</t>
+  </si>
+  <si>
+    <t>7733</t>
+  </si>
+  <si>
+    <t>8001</t>
+  </si>
+  <si>
+    <t>8039</t>
   </si>
   <si>
     <t>Description</t>
@@ -3579,6 +3597,108 @@
         <v>71</v>
       </c>
     </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>504.0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>504.0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>504.0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>504.0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>504.0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>504.0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3594,50 +3714,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
